--- a/data/任务道具数据.xlsx
+++ b/data/任务道具数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\74012\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\office\grade2_2\Software Engineering practice\Cjjpsz\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46677540-9797-4564-B915-33477445660E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D26F4F-B226-408A-85C3-1A64F8F74A54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1872,17 +1872,17 @@
   <dimension ref="A1:E190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="115.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>489</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>127</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>129</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>136</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>139</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>144</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>146</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>150</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>156</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>159</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>169</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>172</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>175</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>178</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>181</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>184</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>185</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>187</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>189</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>192</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>197</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>200</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>203</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>205</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>208</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>213</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>218</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>220</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>226</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>229</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>231</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>234</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>236</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>238</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>240</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>242</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>244</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>246</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>248</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>250</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>252</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>254</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>256</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>258</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>260</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>262</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>264</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>266</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>268</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>270</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>273</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>276</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>278</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>281</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>283</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>286</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>288</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>291</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>294</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>297</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>299</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>301</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>303</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>305</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>307</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>309</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>312</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>315</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>317</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>320</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>322</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>324</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>326</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>329</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>331</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>333</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>336</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>339</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>342</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>345</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>347</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>350</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>352</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>354</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>356</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>359</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>362</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>365</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>368</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>370</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>373</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>376</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>381</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>384</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>387</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>390</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>391</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>394</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>397</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>400</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>402</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>404</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>407</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>410</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>413</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>416</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>419</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>420</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>422</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>441</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>443</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>446</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>449</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>450</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>451</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>452</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>454</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>456</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>458</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>460</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>462</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>465</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>467</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>470</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>472</v>
       </c>
